--- a/inst/fidelity_orders/2022-06-27 13:58:00.xlsx
+++ b/inst/fidelity_orders/2022-06-27 13:58:00.xlsx
@@ -75,718 +75,718 @@
     <t xml:space="preserve">TESLA INC</t>
   </si>
   <si>
-    <t xml:space="preserve">773.636363636364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51</t>
+    <t xml:space="preserve">841.933333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.0516-5.0516 (-0.6853%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44054,405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45884,588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buying (-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TQQQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROSHARES ULTRAPRO QQQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6636363636364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6306-0.6306 (-2.2538%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26962,696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26372,637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selling (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQQQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROSHARES ULTRAPRO SHORT QQQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06+1.06 (+2.078%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23632,363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28022,802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buying (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0799+0.0799 (+0.0564%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20372,037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18831,883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPDR S&amp;P 500 ETF TRUST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513.333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.54-1.54 (-0.3948%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19221,922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15301,530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMC ENTERTAINMENT HOLDINGS INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1666666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58+1.58 (+12.6704%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14131,413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19621,962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVOFEM BIOSCIENCES INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372658227848101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5888+0.5888 (+158.3221%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19421,942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13441,344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZONCOM INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.304347826087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.79-2.79 (-2.3957%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20492,049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12371,237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUROSENSE THERAPEUTICS LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0999+1.0999 (+64.70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14561,456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16221,622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVANCED MICRO DEVICES INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.38-0.38 (-0.4364%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15291,529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14301,430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDIA CORP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.666666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.18-2.18 (-1.2729%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14781,478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11771,177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUTUS MEDICAL INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.542321428571429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6074+0.6074 (+112.8158%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12691,269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12331,233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QQQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESCO QQQ TRUST SERIES 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299.285714285714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.095-2.095 (-0.7111%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12171,217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10451,045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIREXION DAILY SMALL CAP BULL 3X SHARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3684210526316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71+0.71 (+1.9646%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10481,048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10591,059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXSOME THERAPEUTICS INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8725490196078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.685+12.685 (+51.8602%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">905905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11711,171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICROSOFT CORP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280.909090909091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09</t>
   </si>
   <si>
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.51-8.51 (-1.1545%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44054,405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45884,588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buying (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TQQQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROSHARES ULTRAPRO QQQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1304347826087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.67-0.67 (-2.3946%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26962,696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26372,637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selling (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQQQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROSHARES ULTRAPRO SHORT QQQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06+1.06 (+2.078%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23632,363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28022,802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buying (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08+0.08 (+0.0565%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20372,037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18831,883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPDR S&amp;P 500 ETF TRUST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.64-1.64 (-0.4204%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19221,922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15301,530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMC ENTERTAINMENT HOLDINGS INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.485+1.485 (+11.9086%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14131,413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19621,962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVFM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVOFEM BIOSCIENCES INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372317073170732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6106+0.6106 (+164.1839%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19421,942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13441,344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZONCOM INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.727272727273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.59-2.59 (-2.2239%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20492,049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12371,237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEUROSENSE THERAPEUTICS LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29+1.29 (+75.8824%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14561,456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16221,622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVANCED MICRO DEVICES INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5601-0.5601 (-0.6432%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15291,529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14301,430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVIDIA CORP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3976</t>
+    <t xml:space="preserve">-3.09-3.09 (-1.1543%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">894894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10311,031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOPIFY INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394.51935483871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.2301-12.2301 (-3.1748%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12481,248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">META</t>
+  </si>
+  <si>
+    <t xml:space="preserve">META PLATFORMS INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.80-0.80 (-0.4701%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11151,115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOXD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOXED INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49166666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299+0.299 (+12.8879%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">775775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10141,014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMESTOP CORP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.285714285714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.805-4.805 (-3.5537%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10611,061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">694694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPXL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIREXION DAILY S&amp;P 500 BULL 3X SHARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.90-0.90 (-1.2381%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12111,211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">514514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIO INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5588235294118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.835-0.835 (-3.4676%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">740740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVON ENERGY CORP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.1891891891892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01+4.01 (+7.4577%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">817817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">643643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOXL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIREXION DAILY SEMICONDUCTOR BULL 3X SHARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19+0.19 (+1.2018%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">671671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">777777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGILE THERAPEUTICS INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0141+0.0141 (+1.2261%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">872872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVXY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROSHARES ULTRA VIX SHORT-TERM FUTURES ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4444444444444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.52-0.52 (-3.6136%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">813813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">568568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COINBASE GLOBAL INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.2323232323232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.26-6.26 (-9.9825%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">796796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">466466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXXON MOBIL CORP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10+2.10 (+2.4166%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPHABET INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2404.7619047619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.50-50.50 (-2.1403%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">815815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIREXION DAILY S&amp;P BIOTECH BULL 3X SHARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1299</t>
   </si>
   <si>
     <t xml:space="preserve">1.</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.3976-2.3976 (-1.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14781,478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11771,177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUTUS MEDICAL INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54352380952381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5707+0.5707 (+105.9993%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12691,269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12331,233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QQQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVESCO QQQ TRUST SERIES 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310.714285714286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.175-2.175 (-0.7383%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12171,217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10451,045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIREXION DAILY SMALL CAP BULL 3X SHARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.30625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5809+0.5809 (+1.6074%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10481,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10591,059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXSOME THERAPEUTICS INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6862745098039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.59+12.59 (+51.4718%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">905905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11711,171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICROSOFT CORP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286.363636363636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.15-3.15 (-1.1767%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">894894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10311,031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHOPIFY INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">393.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.7599-13.7599 (-3.5719%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12481,248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">660660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">META</t>
-  </si>
-  <si>
-    <t xml:space="preserve">META PLATFORMS INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.04-1.04 (-0.6112%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11151,115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">732732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOXD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOXED INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46153846153846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32+0.32 (+13.7931%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">775775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10141,014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMESTOP CORP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.923076923077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.34-5.34 (-3.9494%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10611,061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">694694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPXL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIREXION DAILY S&amp;P 500 BULL 3X SHARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7875-0.7875 (-1.0834%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12111,211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">514514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIO INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3589743589744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.95-0.95 (-3.9452%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">841841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">740740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DVN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVON ENERGY CORP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8235294117647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66+3.66 (+6.8068%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">817817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOXL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIREXION DAILY SEMICONDUCTOR BULL 3X SHARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14+0.14 (+0.8855%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">671671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">777777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGILE THERAPEUTICS INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00+0.00 (+0.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">872872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">535535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UVXY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROSHARES ULTRA VIX SHORT-TERM FUTURES ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7058823529412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.50-0.50 (-3.4746%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">813813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">568568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COINBASE GLOBAL INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.2123711340206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.1316-6.1316 (-9.7777%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">796796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">466466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXXON MOBIL CORP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.6409090909091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9941+1.9941 (+2.2947%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">626626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOOGL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALPHABET INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2421.05263157895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.00-46.00 (-1.9496%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">815815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIREXION DAILY S&amp;P BIOTECH BULL 3X SHARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0799+0.0799 (+1.0555%)</t>
+    <t xml:space="preserve">0.1299+0.1299 (+1.716%)</t>
   </si>
   <si>
     <t xml:space="preserve">601601</t>
@@ -801,52 +801,52 @@
     <t xml:space="preserve">recent_news</t>
   </si>
   <si>
+    <t xml:space="preserve">Judge orders new trial in Tesla worker's race bias lawsuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Maley's Inner Circle Helped This Benzinga Team Member Make $18,000 On Single Trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Are Whales Doing With Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzinga Before The Bell: Google's Antitrust Complaint, EV Price Hikes By Major Players, Bill Clinton's Comment On Roe V. Wade And Other Top Financial Stories Monday, June 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMC Entertainment Stock Is Surging: Here's What We Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Women's Health Stocks Are Soaring Following Roe v. Wade Ruling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US STOCKS-Wall Street edges lower, weighed by growth stocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasdaq Drops 75 Points; Acutus Medical Shares Spike Higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Information Technology Stocks Whale Activity In Today's Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If You Invested $100 In Apple, Microsoft, Tesla And AMC In March 2020, Here's How Much You'd Have Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Is NeuroSense Therapeutics Surging By 70%? 46 Stocks Moving In Monday's Mid-Day Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Out What Whales Are Doing With SHOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBC Capital Slashes Price Targets Of Meta, Alphabet, Pinterest, Amazon - Read Why</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 Consumer Discretionary Stocks With Whale Alerts In Today's Session</t>
   </si>
   <si>
-    <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt Maley's Inner Circle Helped This Benzinga Team Member Make $18,000 On Single Trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What Are Whales Doing With Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzinga Before The Bell: Google's Antitrust Complaint, EV Price Hikes By Major Players, Bill Clinton's Comment On Roe V. Wade And Other Top Financial Stories Monday, June 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMC Entertainment Stock Is Surging: Here's What We Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Women's Health Stocks Are Soaring Following Roe v. Wade Ruling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasdaq Drops 75 Points; Acutus Medical Shares Spike Higher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Information Technology Stocks Whale Activity In Today's Session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If You Invested $100 In Apple, Microsoft, Tesla And AMC In March 2020, Here's How Much You'd Have Now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why Is NeuroSense Therapeutics Surging By 70%? 46 Stocks Moving In Monday's Mid-Day Session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merger Arbitrage Mondays - Zendesk To Be Acquired By Permira and Hellman &amp; Friedman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Out What Whales Are Doing With SHOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBC Capital Slashes Price Targets Of Meta, Alphabet, Pinterest, Amazon - Read Why</t>
-  </si>
-  <si>
     <t xml:space="preserve">A shale booster shot: 'Re-fracs' rise as cheap way to lift U.S. oil output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why Goldman Sachs Has Upgraded Robinhood, Downgraded Coinbase</t>
   </si>
   <si>
     <t xml:space="preserve">Oil Giant Exxon Thinks Every New Passenger Car Sold Will Be Electric By 2040</t>
@@ -2052,7 +2052,7 @@
         <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -2070,16 +2070,16 @@
         <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O17" t="n">
         <v>1616</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2093,19 +2093,19 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I18" t="s">
         <v>23</v>
@@ -2123,16 +2123,16 @@
         <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O18" t="n">
         <v>1717</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2146,16 +2146,16 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
         <v>101</v>
@@ -2176,16 +2176,16 @@
         <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O19" t="n">
         <v>1818</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -2199,19 +2199,19 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H20" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
         <v>44</v>
@@ -2317,7 +2317,7 @@
         <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="I22" t="s">
         <v>23</v>
@@ -2335,16 +2335,16 @@
         <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O22" t="n">
         <v>2121</v>
       </c>
       <c r="P22" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q22" t="s">
         <v>189</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23">
@@ -2358,19 +2358,19 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" t="s">
         <v>191</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>192</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>193</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>194</v>
-      </c>
-      <c r="H23" t="s">
-        <v>179</v>
       </c>
       <c r="I23" t="s">
         <v>23</v>
@@ -2476,7 +2476,7 @@
         <v>209</v>
       </c>
       <c r="H25" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="I25" t="s">
         <v>44</v>
@@ -2494,16 +2494,16 @@
         <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O25" t="n">
         <v>2424</v>
       </c>
       <c r="P25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q25" t="s">
         <v>212</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="26">
@@ -2517,19 +2517,19 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" t="s">
         <v>214</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>215</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>216</v>
       </c>
-      <c r="G26" t="s">
-        <v>217</v>
-      </c>
       <c r="H26" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s">
         <v>44</v>
@@ -2547,16 +2547,16 @@
         <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O26" t="n">
         <v>2525</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
@@ -2570,19 +2570,19 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" t="s">
         <v>222</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>223</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>224</v>
-      </c>
-      <c r="G27" t="s">
-        <v>225</v>
-      </c>
-      <c r="H27" t="s">
-        <v>226</v>
       </c>
       <c r="I27" t="s">
         <v>23</v>
@@ -2600,16 +2600,16 @@
         <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O27" t="n">
         <v>2626</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
@@ -2623,19 +2623,19 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" t="s">
         <v>230</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>231</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>232</v>
-      </c>
-      <c r="G28" t="s">
-        <v>233</v>
-      </c>
-      <c r="H28" t="s">
-        <v>234</v>
       </c>
       <c r="I28" t="s">
         <v>23</v>
@@ -2653,16 +2653,16 @@
         <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O28" t="n">
         <v>2727</v>
       </c>
       <c r="P28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
@@ -2676,19 +2676,19 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" t="s">
         <v>238</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>239</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>240</v>
-      </c>
-      <c r="G29" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" t="s">
-        <v>85</v>
       </c>
       <c r="I29" t="s">
         <v>44</v>
@@ -2706,16 +2706,16 @@
         <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O29" t="n">
         <v>2828</v>
       </c>
       <c r="P29" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q29" t="s">
         <v>243</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -2729,19 +2729,19 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" t="s">
         <v>245</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>246</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>247</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>248</v>
-      </c>
-      <c r="H30" t="s">
-        <v>249</v>
       </c>
       <c r="I30" t="s">
         <v>23</v>
@@ -2759,16 +2759,16 @@
         <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O30" t="n">
         <v>2929</v>
       </c>
       <c r="P30" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q30" t="s">
         <v>251</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="31">
@@ -2782,19 +2782,19 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" t="s">
         <v>253</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>254</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>255</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>256</v>
-      </c>
-      <c r="H31" t="s">
-        <v>187</v>
       </c>
       <c r="I31" t="s">
         <v>44</v>
@@ -3080,7 +3080,7 @@
         <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
@@ -3107,7 +3107,7 @@
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11">
@@ -3134,7 +3134,7 @@
         <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12">
@@ -3161,7 +3161,7 @@
         <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
@@ -3188,7 +3188,7 @@
         <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14">
@@ -3215,7 +3215,7 @@
         <v>128</v>
       </c>
       <c r="I14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15">
@@ -3269,7 +3269,7 @@
         <v>144</v>
       </c>
       <c r="I16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17">
@@ -3286,17 +3286,17 @@
         <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18">
@@ -3307,20 +3307,20 @@
         <v>1717</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
         <v>274</v>
@@ -3334,20 +3334,20 @@
         <v>1818</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
         <v>275</v>
@@ -3361,10 +3361,10 @@
         <v>1919</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
         <v>172</v>
@@ -3377,7 +3377,7 @@
         <v>174</v>
       </c>
       <c r="I20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21">
@@ -3404,7 +3404,7 @@
         <v>182</v>
       </c>
       <c r="I21" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22">
@@ -3421,14 +3421,14 @@
         <v>184</v>
       </c>
       <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
         <v>188</v>
-      </c>
-      <c r="F22" t="s">
-        <v>189</v>
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I22" t="s">
         <v>263</v>
@@ -3442,10 +3442,10 @@
         <v>2222</v>
       </c>
       <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" t="s">
         <v>191</v>
-      </c>
-      <c r="D23" t="s">
-        <v>192</v>
       </c>
       <c r="E23" t="s">
         <v>195</v>
@@ -3458,7 +3458,7 @@
         <v>197</v>
       </c>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24">
@@ -3485,7 +3485,7 @@
         <v>205</v>
       </c>
       <c r="I24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25">
@@ -3502,14 +3502,14 @@
         <v>207</v>
       </c>
       <c r="E25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" t="s">
         <v>211</v>
-      </c>
-      <c r="F25" t="s">
-        <v>212</v>
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I25" t="s">
         <v>263</v>
@@ -3523,20 +3523,20 @@
         <v>2525</v>
       </c>
       <c r="C26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" t="s">
         <v>214</v>
       </c>
-      <c r="D26" t="s">
-        <v>215</v>
-      </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I26" t="s">
         <v>268</v>
@@ -3550,20 +3550,20 @@
         <v>2626</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I27" t="s">
         <v>263</v>
@@ -3577,23 +3577,23 @@
         <v>2727</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
@@ -3604,20 +3604,20 @@
         <v>2828</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" t="s">
         <v>242</v>
-      </c>
-      <c r="F29" t="s">
-        <v>243</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I29" t="s">
         <v>278</v>
@@ -3631,23 +3631,23 @@
         <v>2929</v>
       </c>
       <c r="C30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" t="s">
         <v>245</v>
       </c>
-      <c r="D30" t="s">
-        <v>246</v>
-      </c>
       <c r="E30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" t="s">
         <v>250</v>
-      </c>
-      <c r="F30" t="s">
-        <v>251</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
@@ -3658,10 +3658,10 @@
         <v>3030</v>
       </c>
       <c r="C31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" t="s">
         <v>253</v>
-      </c>
-      <c r="D31" t="s">
-        <v>254</v>
       </c>
       <c r="E31" t="s">
         <v>257</v>
